--- a/differences_6_0.35.xlsx
+++ b/differences_6_0.35.xlsx
@@ -527,7 +527,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.129</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.03899999999999998</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -573,7 +573,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.09900000000000009</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -619,7 +619,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.147</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -634,7 +634,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.03800000000000003</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0.07200000000000001</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -699,13 +699,13 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.06599999999999995</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -751,7 +751,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.02600000000000002</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -769,7 +769,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0.04100000000000004</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -794,10 +794,10 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.04400000000000004</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -837,13 +837,13 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.04099999999999993</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0.01200000000000001</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -895,13 +895,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.09799999999999998</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0.002000000000000002</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -929,7 +929,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01300000000000001</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -956,7 +956,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0.05199999999999999</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -1042,7 +1042,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>-0.109</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1073,7 +1073,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0.05400000000000005</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1186,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0.04499999999999998</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -1217,7 +1217,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.16</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1395,7 +1395,7 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0.009000000000000008</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -1481,7 +1481,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0.04999999999999993</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -1508,7 +1508,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0.062</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -1895,7 +1895,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0.05700000000000005</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -2416,7 +2416,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>0.058</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -2539,7 +2539,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0.02100000000000002</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -2689,7 +2689,7 @@
         <v>0</v>
       </c>
       <c r="G49" t="n">
-        <v>-0.06599999999999995</v>
+        <v>0</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3014,10 +3014,10 @@
         <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>-0.058</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="J56" t="n">
         <v>0</v>
@@ -3118,7 +3118,7 @@
         <v>0</v>
       </c>
       <c r="L58" t="n">
-        <v>0.04099999999999998</v>
+        <v>0</v>
       </c>
       <c r="M58" t="n">
         <v>0</v>
@@ -3290,10 +3290,10 @@
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
+        <v>0.05899999999999994</v>
       </c>
       <c r="J62" t="n">
         <v>0</v>
@@ -3434,7 +3434,7 @@
         <v>0</v>
       </c>
       <c r="J65" t="n">
-        <v>-0.09799999999999998</v>
+        <v>0</v>
       </c>
       <c r="K65" t="n">
         <v>0</v>
@@ -3563,13 +3563,13 @@
         <v>0</v>
       </c>
       <c r="G68" t="n">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
+        <v>0.02800000000000002</v>
       </c>
       <c r="J68" t="n">
         <v>0</v>
@@ -3600,7 +3600,7 @@
         <v>0</v>
       </c>
       <c r="D69" t="n">
-        <v>0</v>
+        <v>0.07500000000000001</v>
       </c>
       <c r="E69" t="n">
         <v>0</v>
@@ -3686,7 +3686,7 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0</v>
+        <v>0.003000000000000003</v>
       </c>
       <c r="C71" t="n">
         <v>0</v>
@@ -3695,7 +3695,7 @@
         <v>0</v>
       </c>
       <c r="E71" t="n">
-        <v>0</v>
+        <v>-0.01300000000000001</v>
       </c>
       <c r="F71" t="n">
         <v>0</v>
@@ -3974,13 +3974,13 @@
         <v>0</v>
       </c>
       <c r="F77" t="n">
-        <v>0</v>
+        <v>-0.006000000000000005</v>
       </c>
       <c r="G77" t="n">
         <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>0.03299999999999997</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
@@ -4078,7 +4078,7 @@
         <v>0</v>
       </c>
       <c r="J79" t="n">
-        <v>0</v>
+        <v>0.02300000000000002</v>
       </c>
       <c r="K79" t="n">
         <v>0</v>
@@ -4112,7 +4112,7 @@
         <v>0</v>
       </c>
       <c r="F80" t="n">
-        <v>0</v>
+        <v>0.03700000000000003</v>
       </c>
       <c r="G80" t="n">
         <v>0</v>
@@ -4161,7 +4161,7 @@
         <v>0</v>
       </c>
       <c r="G81" t="n">
-        <v>0</v>
+        <v>0.09799999999999998</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -4192,10 +4192,10 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.02999999999999992</v>
+        <v>0</v>
       </c>
       <c r="C82" t="n">
-        <v>0.01999999999999991</v>
+        <v>0</v>
       </c>
       <c r="D82" t="n">
         <v>0</v>
@@ -4308,7 +4308,7 @@
         <v>0</v>
       </c>
       <c r="J84" t="n">
-        <v>0</v>
+        <v>0.139</v>
       </c>
       <c r="K84" t="n">
         <v>0</v>
@@ -4431,7 +4431,7 @@
         <v>0</v>
       </c>
       <c r="E87" t="n">
-        <v>0</v>
+        <v>-0.0129999999999999</v>
       </c>
       <c r="F87" t="n">
         <v>0</v>
@@ -4440,7 +4440,7 @@
         <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
@@ -4489,7 +4489,7 @@
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>0</v>
+        <v>0.136</v>
       </c>
       <c r="J88" t="n">
         <v>0</v>
@@ -4529,7 +4529,7 @@
         <v>0</v>
       </c>
       <c r="G89" t="n">
-        <v>0</v>
+        <v>0.03700000000000003</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -4584,7 +4584,7 @@
         <v>0</v>
       </c>
       <c r="J90" t="n">
-        <v>0</v>
+        <v>0.04699999999999999</v>
       </c>
       <c r="K90" t="n">
         <v>0</v>
@@ -4606,7 +4606,7 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0</v>
+        <v>-0.03700000000000003</v>
       </c>
       <c r="C91" t="n">
         <v>0</v>
@@ -4624,7 +4624,7 @@
         <v>0</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>0.04599999999999999</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
@@ -4716,7 +4716,7 @@
         <v>0</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>0.07200000000000001</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
@@ -4793,7 +4793,7 @@
         <v>0</v>
       </c>
       <c r="C95" t="n">
-        <v>0</v>
+        <v>-0.0169999999999999</v>
       </c>
       <c r="D95" t="n">
         <v>0</v>
@@ -4820,7 +4820,7 @@
         <v>0</v>
       </c>
       <c r="L95" t="n">
-        <v>0</v>
+        <v>-0.03899999999999998</v>
       </c>
       <c r="M95" t="n">
         <v>0</v>
@@ -4897,7 +4897,7 @@
         <v>0</v>
       </c>
       <c r="G97" t="n">
-        <v>0</v>
+        <v>0.1080000000000001</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4912,7 +4912,7 @@
         <v>0</v>
       </c>
       <c r="L97" t="n">
-        <v>0</v>
+        <v>0.02200000000000002</v>
       </c>
       <c r="M97" t="n">
         <v>0</v>
@@ -4928,7 +4928,7 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0</v>
+        <v>-0.02200000000000002</v>
       </c>
       <c r="C98" t="n">
         <v>0</v>
@@ -4955,7 +4955,7 @@
         <v>0</v>
       </c>
       <c r="K98" t="n">
-        <v>0</v>
+        <v>-0.113</v>
       </c>
       <c r="L98" t="n">
         <v>0</v>
@@ -4977,7 +4977,7 @@
         <v>0</v>
       </c>
       <c r="C99" t="n">
-        <v>0</v>
+        <v>0.03100000000000003</v>
       </c>
       <c r="D99" t="n">
         <v>0</v>
@@ -4992,7 +4992,7 @@
         <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>0.04899999999999999</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
@@ -5023,13 +5023,13 @@
         <v>0</v>
       </c>
       <c r="C100" t="n">
-        <v>0</v>
+        <v>-0.05000000000000004</v>
       </c>
       <c r="D100" t="n">
         <v>0</v>
       </c>
       <c r="E100" t="n">
-        <v>0</v>
+        <v>-0.03000000000000003</v>
       </c>
       <c r="F100" t="n">
         <v>0</v>
